--- a/data/pca/factorExposure/factorExposure_2017-05-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02259381209845475</v>
+        <v>0.009247941376935145</v>
       </c>
       <c r="C2">
-        <v>-0.008308161017117677</v>
+        <v>-0.04278781631974721</v>
       </c>
       <c r="D2">
-        <v>0.02969580022544029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0297083171971044</v>
+      </c>
+      <c r="E2">
+        <v>-0.03680377463121353</v>
+      </c>
+      <c r="F2">
+        <v>0.007610032061923738</v>
+      </c>
+      <c r="G2">
+        <v>0.09353587005164485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01872585525097447</v>
+        <v>0.04259580298138198</v>
       </c>
       <c r="C3">
-        <v>0.01792689106431492</v>
+        <v>-0.1026636533072437</v>
       </c>
       <c r="D3">
-        <v>0.1055982219153854</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01830228981863012</v>
+      </c>
+      <c r="E3">
+        <v>-0.1045957787199827</v>
+      </c>
+      <c r="F3">
+        <v>0.0007709209615401903</v>
+      </c>
+      <c r="G3">
+        <v>0.1899008156949744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02489731855933404</v>
+        <v>0.05520569098283641</v>
       </c>
       <c r="C4">
-        <v>0.0008288171604085633</v>
+        <v>-0.06782367118193926</v>
       </c>
       <c r="D4">
-        <v>0.08518668416586848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02439982255547259</v>
+      </c>
+      <c r="E4">
+        <v>-0.02973154014477511</v>
+      </c>
+      <c r="F4">
+        <v>0.009265378394938935</v>
+      </c>
+      <c r="G4">
+        <v>0.09906002433329625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01262011730633258</v>
+        <v>0.03630802691440659</v>
       </c>
       <c r="C6">
-        <v>-0.01123600235433596</v>
+        <v>-0.05254531617605804</v>
       </c>
       <c r="D6">
-        <v>0.07997682650430739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01686946943181634</v>
+      </c>
+      <c r="E6">
+        <v>-0.03456958125878308</v>
+      </c>
+      <c r="F6">
+        <v>0.007003695845664392</v>
+      </c>
+      <c r="G6">
+        <v>0.08207322026509205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01081673834485528</v>
+        <v>0.02070370652905546</v>
       </c>
       <c r="C7">
-        <v>-0.003921667752530872</v>
+        <v>-0.03933275465586287</v>
       </c>
       <c r="D7">
-        <v>0.03759896135558531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01370222481843809</v>
+      </c>
+      <c r="E7">
+        <v>-0.004256829513932346</v>
+      </c>
+      <c r="F7">
+        <v>-0.004281083209901558</v>
+      </c>
+      <c r="G7">
+        <v>0.1173390709394293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0003080269291936205</v>
+        <v>0.002984589615737711</v>
       </c>
       <c r="C8">
-        <v>-0.001558233654998427</v>
+        <v>-0.02467952565122555</v>
       </c>
       <c r="D8">
-        <v>0.002969551612121003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004039732898227032</v>
+      </c>
+      <c r="E8">
+        <v>-0.02837805467332725</v>
+      </c>
+      <c r="F8">
+        <v>0.005909305485049722</v>
+      </c>
+      <c r="G8">
+        <v>0.07060320486119524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01696807854787172</v>
+        <v>0.03317480229117656</v>
       </c>
       <c r="C9">
-        <v>0.003069455061761113</v>
+        <v>-0.04866068600250296</v>
       </c>
       <c r="D9">
-        <v>0.06124199559183985</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01648008748242972</v>
+      </c>
+      <c r="E9">
+        <v>-0.01974851051994424</v>
+      </c>
+      <c r="F9">
+        <v>0.006548261127032997</v>
+      </c>
+      <c r="G9">
+        <v>0.09897089900968942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.05893819438122116</v>
+        <v>0.09849751232627346</v>
       </c>
       <c r="C10">
-        <v>0.1793210238840886</v>
+        <v>0.1818514821517382</v>
       </c>
       <c r="D10">
-        <v>-0.09165852496270105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01495192899719254</v>
+      </c>
+      <c r="E10">
+        <v>-0.02225190927040904</v>
+      </c>
+      <c r="F10">
+        <v>-0.02283860490679</v>
+      </c>
+      <c r="G10">
+        <v>0.05789336037690608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0008654123071954959</v>
+        <v>0.03434012227105455</v>
       </c>
       <c r="C11">
-        <v>-0.00587872583829008</v>
+        <v>-0.05432661287900898</v>
       </c>
       <c r="D11">
-        <v>0.0555628442830283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002397851349106306</v>
+      </c>
+      <c r="E11">
+        <v>-0.01594686010128998</v>
+      </c>
+      <c r="F11">
+        <v>0.02040539329023068</v>
+      </c>
+      <c r="G11">
+        <v>0.09207258323267796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004680692723198428</v>
+        <v>0.03629869653045634</v>
       </c>
       <c r="C12">
-        <v>-0.003948710155575127</v>
+        <v>-0.04896309511969078</v>
       </c>
       <c r="D12">
-        <v>0.04946039301455251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006393328745277531</v>
+      </c>
+      <c r="E12">
+        <v>-0.007203863108887001</v>
+      </c>
+      <c r="F12">
+        <v>0.00160264513769442</v>
+      </c>
+      <c r="G12">
+        <v>0.08420873585277927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02388333061669516</v>
+        <v>0.0152717405770216</v>
       </c>
       <c r="C13">
-        <v>0.002197390947681906</v>
+        <v>-0.04150482281507648</v>
       </c>
       <c r="D13">
-        <v>0.03774374726009862</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02640343768488879</v>
+      </c>
+      <c r="E13">
+        <v>-0.03608984929283859</v>
+      </c>
+      <c r="F13">
+        <v>0.005312518925945444</v>
+      </c>
+      <c r="G13">
+        <v>0.1344378411633391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00971481261870491</v>
+        <v>0.008673570238390181</v>
       </c>
       <c r="C14">
-        <v>0.006069655160458248</v>
+        <v>-0.0286786111929815</v>
       </c>
       <c r="D14">
-        <v>0.0167618133199529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.009956207625614171</v>
+      </c>
+      <c r="E14">
+        <v>-0.006519075950075916</v>
+      </c>
+      <c r="F14">
+        <v>-0.008879018920161004</v>
+      </c>
+      <c r="G14">
+        <v>0.1015109065442915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002105178667112406</v>
+        <v>0.03312185336615848</v>
       </c>
       <c r="C16">
-        <v>0.00339587731062658</v>
+        <v>-0.0472981672053575</v>
       </c>
       <c r="D16">
-        <v>0.04479129690830649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.001894260903270825</v>
+      </c>
+      <c r="E16">
+        <v>-0.01387630329423003</v>
+      </c>
+      <c r="F16">
+        <v>0.002304204865294308</v>
+      </c>
+      <c r="G16">
+        <v>0.09258261179511974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01354172228770131</v>
+        <v>0.02177648470309762</v>
       </c>
       <c r="C19">
-        <v>-0.001236217737799525</v>
+        <v>-0.0541505769911071</v>
       </c>
       <c r="D19">
-        <v>0.04918770101613941</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01875599337126778</v>
+      </c>
+      <c r="E19">
+        <v>-0.0735413241357018</v>
+      </c>
+      <c r="F19">
+        <v>0.01800970462954141</v>
+      </c>
+      <c r="G19">
+        <v>0.1329443716202044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01044843299439362</v>
+        <v>0.01502457873794908</v>
       </c>
       <c r="C20">
-        <v>-0.002898838472647157</v>
+        <v>-0.04008648493867238</v>
       </c>
       <c r="D20">
-        <v>0.03537594244334256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01416986492765161</v>
+      </c>
+      <c r="E20">
+        <v>-0.03492168756155731</v>
+      </c>
+      <c r="F20">
+        <v>-0.0142819201894114</v>
+      </c>
+      <c r="G20">
+        <v>0.109899762367429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01587458842440614</v>
+        <v>0.01289271839632421</v>
       </c>
       <c r="C21">
-        <v>0.004686240008167398</v>
+        <v>-0.03969129338444764</v>
       </c>
       <c r="D21">
-        <v>0.03555241684847271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01873514022726193</v>
+      </c>
+      <c r="E21">
+        <v>-0.04864911976338866</v>
+      </c>
+      <c r="F21">
+        <v>-0.0009540068458302035</v>
+      </c>
+      <c r="G21">
+        <v>0.1287899601996024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001451717370732302</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.000315903621858922</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0005356076195240663</v>
+      </c>
+      <c r="E22">
+        <v>-0.002744828999588814</v>
+      </c>
+      <c r="F22">
+        <v>0.001253649429588011</v>
+      </c>
+      <c r="G22">
+        <v>0.004286791529993217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001456063081628841</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0003155093214740964</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0005357223966655672</v>
+      </c>
+      <c r="E23">
+        <v>-0.002750873344568645</v>
+      </c>
+      <c r="F23">
+        <v>0.0012518077990073</v>
+      </c>
+      <c r="G23">
+        <v>0.004300717232253192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.002215714867477759</v>
+        <v>0.02857057615718051</v>
       </c>
       <c r="C24">
-        <v>-0.009885631041883357</v>
+        <v>-0.05172128684916188</v>
       </c>
       <c r="D24">
-        <v>0.0497109838624037</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007151098591800454</v>
+      </c>
+      <c r="E24">
+        <v>-0.01044868757931539</v>
+      </c>
+      <c r="F24">
+        <v>0.01235332056930066</v>
+      </c>
+      <c r="G24">
+        <v>0.09227069557931585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01281530967559231</v>
+        <v>0.04298625502426972</v>
       </c>
       <c r="C25">
-        <v>0.003466080591354888</v>
+        <v>-0.05890633103078021</v>
       </c>
       <c r="D25">
-        <v>0.05974468126748617</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01114844979205225</v>
+      </c>
+      <c r="E25">
+        <v>-0.002802790507810482</v>
+      </c>
+      <c r="F25">
+        <v>0.005861442208809391</v>
+      </c>
+      <c r="G25">
+        <v>0.1026772354613481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02285030570993867</v>
+        <v>0.01446985197088558</v>
       </c>
       <c r="C26">
-        <v>-0.001891329452732943</v>
+        <v>-0.01123718853805969</v>
       </c>
       <c r="D26">
-        <v>0.001928520693930018</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02397596455635897</v>
+      </c>
+      <c r="E26">
+        <v>-0.009304684909926038</v>
+      </c>
+      <c r="F26">
+        <v>-0.01010718285913184</v>
+      </c>
+      <c r="G26">
+        <v>0.08051791205303639</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09216918524666128</v>
+        <v>0.1259195937527646</v>
       </c>
       <c r="C28">
-        <v>0.2345631055573925</v>
+        <v>0.2382826168496116</v>
       </c>
       <c r="D28">
-        <v>-0.113295703715263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.005858190770706487</v>
+      </c>
+      <c r="E28">
+        <v>-0.01010320057506354</v>
+      </c>
+      <c r="F28">
+        <v>-0.01744481209073042</v>
+      </c>
+      <c r="G28">
+        <v>0.04630666092460142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0110887754695721</v>
+        <v>0.009367978116913721</v>
       </c>
       <c r="C29">
-        <v>0.01064054773554064</v>
+        <v>-0.02243495121681436</v>
       </c>
       <c r="D29">
-        <v>0.01797585516287848</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.008987874817802437</v>
+      </c>
+      <c r="E29">
+        <v>-0.003663761107397711</v>
+      </c>
+      <c r="F29">
+        <v>-0.01714617593511474</v>
+      </c>
+      <c r="G29">
+        <v>0.09559338306459328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01995492761236975</v>
+        <v>0.04042658063525353</v>
       </c>
       <c r="C30">
-        <v>-0.01876981912010117</v>
+        <v>-0.07119229625910123</v>
       </c>
       <c r="D30">
-        <v>0.1031771299658939</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02879532451611969</v>
+      </c>
+      <c r="E30">
+        <v>-0.0551458121128824</v>
+      </c>
+      <c r="F30">
+        <v>0.04190414924452859</v>
+      </c>
+      <c r="G30">
+        <v>0.126233224616124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01485573714465867</v>
+        <v>0.05332568277064206</v>
       </c>
       <c r="C31">
-        <v>0.02617726012762933</v>
+        <v>-0.03774818992218127</v>
       </c>
       <c r="D31">
-        <v>0.0380248963526559</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003740990586544661</v>
+      </c>
+      <c r="E31">
+        <v>-0.0004160199062375766</v>
+      </c>
+      <c r="F31">
+        <v>-0.04135957259761459</v>
+      </c>
+      <c r="G31">
+        <v>0.1002660355994797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001216031218712166</v>
+        <v>0.002182349688859953</v>
       </c>
       <c r="C32">
-        <v>0.02105822239304937</v>
+        <v>-0.02390668532580945</v>
       </c>
       <c r="D32">
-        <v>0.002961398766657887</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.003524976718528281</v>
+      </c>
+      <c r="E32">
+        <v>-0.02839954661496833</v>
+      </c>
+      <c r="F32">
+        <v>0.03716824050101308</v>
+      </c>
+      <c r="G32">
+        <v>0.07518116867809962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01290401852186891</v>
+        <v>0.02745309658978961</v>
       </c>
       <c r="C33">
-        <v>0.001888680985709121</v>
+        <v>-0.05104473299561393</v>
       </c>
       <c r="D33">
-        <v>0.04543182057718057</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01566176925517811</v>
+      </c>
+      <c r="E33">
+        <v>-0.04186339058538724</v>
+      </c>
+      <c r="F33">
+        <v>0.01397166284031867</v>
+      </c>
+      <c r="G33">
+        <v>0.1608460195213211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.002198569077196154</v>
+        <v>0.04020171072857885</v>
       </c>
       <c r="C34">
-        <v>0.009292064602852495</v>
+        <v>-0.0607573198862986</v>
       </c>
       <c r="D34">
-        <v>0.05659623048413439</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004675479730765436</v>
+      </c>
+      <c r="E34">
+        <v>-0.00511228599293984</v>
+      </c>
+      <c r="F34">
+        <v>0.01975022268723631</v>
+      </c>
+      <c r="G34">
+        <v>0.09605422721485686</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01510447218601307</v>
+        <v>0.01637945129589831</v>
       </c>
       <c r="C36">
-        <v>0.01061184318018259</v>
+        <v>-0.009376025247883646</v>
       </c>
       <c r="D36">
-        <v>0.00670364501004527</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01238679962479999</v>
+      </c>
+      <c r="E36">
+        <v>-0.008190253684402576</v>
+      </c>
+      <c r="F36">
+        <v>-0.00767673617833086</v>
+      </c>
+      <c r="G36">
+        <v>0.0900727795222054</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001995873507426387</v>
+        <v>0.03155271234305987</v>
       </c>
       <c r="C38">
-        <v>0.02582076936781177</v>
+        <v>-0.03134893006638487</v>
       </c>
       <c r="D38">
-        <v>0.04997028540568743</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007475964205265375</v>
+      </c>
+      <c r="E38">
+        <v>-0.005865566453301932</v>
+      </c>
+      <c r="F38">
+        <v>-0.02081152757264852</v>
+      </c>
+      <c r="G38">
+        <v>0.08696330409613585</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.00128519710881141</v>
+        <v>0.03661904493020088</v>
       </c>
       <c r="C39">
-        <v>-0.0314261347293833</v>
+        <v>-0.08092370600231096</v>
       </c>
       <c r="D39">
-        <v>0.1011707304219617</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0115115948795302</v>
+      </c>
+      <c r="E39">
+        <v>-0.02693142341639715</v>
+      </c>
+      <c r="F39">
+        <v>0.02226205852823994</v>
+      </c>
+      <c r="G39">
+        <v>0.08938774251963644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01282999247146782</v>
+        <v>0.01319916658812469</v>
       </c>
       <c r="C40">
-        <v>0.003335990830921405</v>
+        <v>-0.04051290544981152</v>
       </c>
       <c r="D40">
-        <v>0.04013996382095062</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0149489059220475</v>
+      </c>
+      <c r="E40">
+        <v>-0.03213780773793339</v>
+      </c>
+      <c r="F40">
+        <v>-0.007550357414424695</v>
+      </c>
+      <c r="G40">
+        <v>0.1194483667617513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01046265390994547</v>
+        <v>0.02078801659715013</v>
       </c>
       <c r="C41">
-        <v>0.02012968100692853</v>
+        <v>-0.002229355035526472</v>
       </c>
       <c r="D41">
-        <v>-0.009714313873496748</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004234525640251038</v>
+      </c>
+      <c r="E41">
+        <v>-0.005772871737719121</v>
+      </c>
+      <c r="F41">
+        <v>-0.01612326967508859</v>
+      </c>
+      <c r="G41">
+        <v>0.08135914520560594</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08313179701990923</v>
+        <v>0.009993961413408697</v>
       </c>
       <c r="C42">
-        <v>-0.04786925617569616</v>
+        <v>-0.03353715463528768</v>
       </c>
       <c r="D42">
-        <v>0.1645925495149999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08962662507387061</v>
+      </c>
+      <c r="E42">
+        <v>-0.01478846711636563</v>
+      </c>
+      <c r="F42">
+        <v>-0.04596549500369685</v>
+      </c>
+      <c r="G42">
+        <v>-0.04243842385868783</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01081503205031086</v>
+        <v>0.03481914405029893</v>
       </c>
       <c r="C43">
-        <v>0.01862697694093688</v>
+        <v>-0.01817987774885276</v>
       </c>
       <c r="D43">
-        <v>-0.004874614570768665</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.005900153439249175</v>
+      </c>
+      <c r="E43">
+        <v>-0.02098946027738771</v>
+      </c>
+      <c r="F43">
+        <v>-0.006072568940322407</v>
+      </c>
+      <c r="G43">
+        <v>0.1197010922799803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.001458972915478885</v>
+        <v>0.01219345609535307</v>
       </c>
       <c r="C44">
-        <v>-0.006105813315311815</v>
+        <v>-0.05886629739873032</v>
       </c>
       <c r="D44">
-        <v>0.05394135092126052</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.006957881374552962</v>
+      </c>
+      <c r="E44">
+        <v>-0.02236322254051243</v>
+      </c>
+      <c r="F44">
+        <v>-0.005942408229628842</v>
+      </c>
+      <c r="G44">
+        <v>0.1079786909911349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01177816363854204</v>
+        <v>0.00785069478959757</v>
       </c>
       <c r="C46">
-        <v>0.004048054150303676</v>
+        <v>-0.01726762219523914</v>
       </c>
       <c r="D46">
-        <v>0.003176266517826962</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01258923232265701</v>
+      </c>
+      <c r="E46">
+        <v>-0.00353331205694716</v>
+      </c>
+      <c r="F46">
+        <v>-0.01650751993417711</v>
+      </c>
+      <c r="G46">
+        <v>0.1021324919676422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.01034648236783745</v>
+        <v>0.07773522239619035</v>
       </c>
       <c r="C47">
-        <v>0.032653481509799</v>
+        <v>-0.06749710318826667</v>
       </c>
       <c r="D47">
-        <v>0.07487723079437841</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005126923185200125</v>
+      </c>
+      <c r="E47">
+        <v>0.007158519757265019</v>
+      </c>
+      <c r="F47">
+        <v>-0.05590811212184014</v>
+      </c>
+      <c r="G47">
+        <v>0.08770501080825957</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005963955636303463</v>
+        <v>0.01949898595605591</v>
       </c>
       <c r="C48">
-        <v>0.01275522617585838</v>
+        <v>-0.01293173221080418</v>
       </c>
       <c r="D48">
-        <v>0.0203891623354898</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002001081972690593</v>
+      </c>
+      <c r="E48">
+        <v>-0.00414828733557176</v>
+      </c>
+      <c r="F48">
+        <v>-0.02084711054142189</v>
+      </c>
+      <c r="G48">
+        <v>0.09586325577461707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.01366193507951054</v>
+        <v>0.07525530724233002</v>
       </c>
       <c r="C50">
-        <v>0.03627910633397934</v>
+        <v>-0.07178186635448298</v>
       </c>
       <c r="D50">
-        <v>0.07123827524209116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002282255541876008</v>
+      </c>
+      <c r="E50">
+        <v>0.003860744063363007</v>
+      </c>
+      <c r="F50">
+        <v>-0.05679281411015717</v>
+      </c>
+      <c r="G50">
+        <v>0.09493172531295908</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.00816318116299854</v>
+        <v>0.01475199708171185</v>
       </c>
       <c r="C51">
-        <v>0.005130530316610495</v>
+        <v>-0.03619969522144905</v>
       </c>
       <c r="D51">
-        <v>0.02065057866198643</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01047178322756527</v>
+      </c>
+      <c r="E51">
+        <v>-0.02470602230443084</v>
+      </c>
+      <c r="F51">
+        <v>0.02313265843104492</v>
+      </c>
+      <c r="G51">
+        <v>0.1217258538576835</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01330435775374013</v>
+        <v>0.08175250583420829</v>
       </c>
       <c r="C53">
-        <v>0.03196195741426883</v>
+        <v>-0.08574780554168812</v>
       </c>
       <c r="D53">
-        <v>0.1328423273779912</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003337805862028391</v>
+      </c>
+      <c r="E53">
+        <v>0.02542427272560839</v>
+      </c>
+      <c r="F53">
+        <v>-0.0640679691640396</v>
+      </c>
+      <c r="G53">
+        <v>0.09531391633261049</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.009808822095878222</v>
+        <v>0.03286419990422664</v>
       </c>
       <c r="C54">
-        <v>0.03724766275285084</v>
+        <v>-0.01764662928135293</v>
       </c>
       <c r="D54">
-        <v>-0.001159367258497059</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001705669983183156</v>
+      </c>
+      <c r="E54">
+        <v>-0.01600799447773301</v>
+      </c>
+      <c r="F54">
+        <v>-0.007166101364532951</v>
+      </c>
+      <c r="G54">
+        <v>0.1064186595770595</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.006944273506804182</v>
+        <v>0.07182334301275696</v>
       </c>
       <c r="C55">
-        <v>0.01913391853313396</v>
+        <v>-0.06930106814129135</v>
       </c>
       <c r="D55">
-        <v>0.107907045622022</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.004977015074704825</v>
+      </c>
+      <c r="E55">
+        <v>0.02397628907977025</v>
+      </c>
+      <c r="F55">
+        <v>-0.06351932969168121</v>
+      </c>
+      <c r="G55">
+        <v>0.07034906637407187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01533139643691263</v>
+        <v>0.1369590611409152</v>
       </c>
       <c r="C56">
-        <v>0.0496207236058509</v>
+        <v>-0.1086820522953947</v>
       </c>
       <c r="D56">
-        <v>0.1651593317164154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01243534646221512</v>
+      </c>
+      <c r="E56">
+        <v>0.0327246783980092</v>
+      </c>
+      <c r="F56">
+        <v>-0.07968811392922411</v>
+      </c>
+      <c r="G56">
+        <v>0.04845476659600177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02419324151886844</v>
+        <v>0.005446534661070388</v>
       </c>
       <c r="C57">
-        <v>-0.00166587004268214</v>
+        <v>-0.007482505142946063</v>
       </c>
       <c r="D57">
-        <v>0.03670872940418533</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02341430640149159</v>
+      </c>
+      <c r="E57">
+        <v>-0.02600265658559647</v>
+      </c>
+      <c r="F57">
+        <v>0.01032665880482343</v>
+      </c>
+      <c r="G57">
+        <v>0.02706161065198175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.02017683174145513</v>
+        <v>0.05081770013067659</v>
       </c>
       <c r="C58">
-        <v>0.04527161279180917</v>
+        <v>-0.05556008930142135</v>
       </c>
       <c r="D58">
-        <v>0.1596134327632862</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02227866584704787</v>
+      </c>
+      <c r="E58">
+        <v>-0.9167105580888162</v>
+      </c>
+      <c r="F58">
+        <v>-0.2653211012666851</v>
+      </c>
+      <c r="G58">
+        <v>-0.2153732889676435</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.09576176428088519</v>
+        <v>0.1602809346473484</v>
       </c>
       <c r="C59">
-        <v>0.2575385789840532</v>
+        <v>0.2031519250435331</v>
       </c>
       <c r="D59">
-        <v>-0.09683857873510167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01133976288649341</v>
+      </c>
+      <c r="E59">
+        <v>-0.02260216357937154</v>
+      </c>
+      <c r="F59">
+        <v>-0.003279724833153954</v>
+      </c>
+      <c r="G59">
+        <v>0.03741704465720861</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.08108428287574362</v>
+        <v>0.2885182015568198</v>
       </c>
       <c r="C60">
-        <v>0.161700803996205</v>
+        <v>-0.1067487867951533</v>
       </c>
       <c r="D60">
-        <v>0.1422213699425904</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.011470529094287</v>
+      </c>
+      <c r="E60">
+        <v>-0.001092964554979112</v>
+      </c>
+      <c r="F60">
+        <v>0.3428867280259897</v>
+      </c>
+      <c r="G60">
+        <v>-0.1581614397976361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.00249846941776704</v>
+        <v>0.03809797837176883</v>
       </c>
       <c r="C61">
-        <v>-0.004372235290251888</v>
+        <v>-0.06649113329936505</v>
       </c>
       <c r="D61">
-        <v>0.07407915456705692</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005356286454973869</v>
+      </c>
+      <c r="E61">
+        <v>-0.02065296752545447</v>
+      </c>
+      <c r="F61">
+        <v>0.01418266327190319</v>
+      </c>
+      <c r="G61">
+        <v>0.0917913184624552</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008108068113131642</v>
+        <v>0.01542942299614722</v>
       </c>
       <c r="C63">
-        <v>-0.0005433945592965882</v>
+        <v>-0.03019479298818717</v>
       </c>
       <c r="D63">
-        <v>0.02722257922135748</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008541209296961718</v>
+      </c>
+      <c r="E63">
+        <v>-0.004077031306815883</v>
+      </c>
+      <c r="F63">
+        <v>-0.0197592620967163</v>
+      </c>
+      <c r="G63">
+        <v>0.09411495315119527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01253212258756713</v>
+        <v>0.04804567304237626</v>
       </c>
       <c r="C64">
-        <v>0.01736513816138432</v>
+        <v>-0.0473244113873153</v>
       </c>
       <c r="D64">
-        <v>0.06413879193094386</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006215336796970903</v>
+      </c>
+      <c r="E64">
+        <v>-0.004578145399932763</v>
+      </c>
+      <c r="F64">
+        <v>0.004498880005640891</v>
+      </c>
+      <c r="G64">
+        <v>0.09516192151440564</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01995927696235452</v>
+        <v>0.0740090814690344</v>
       </c>
       <c r="C65">
-        <v>0.001685712531415428</v>
+        <v>-0.05970135137398564</v>
       </c>
       <c r="D65">
-        <v>0.1055481208368938</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01655625807214166</v>
+      </c>
+      <c r="E65">
+        <v>-0.03688498876844233</v>
+      </c>
+      <c r="F65">
+        <v>0.0286184399400107</v>
+      </c>
+      <c r="G65">
+        <v>0.03582613288824808</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.001978981727701213</v>
+        <v>0.05061158304990503</v>
       </c>
       <c r="C66">
-        <v>-0.03328501284044703</v>
+        <v>-0.1083193428958216</v>
       </c>
       <c r="D66">
-        <v>0.1345652110099566</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01163249669200524</v>
+      </c>
+      <c r="E66">
+        <v>-0.03757921211670066</v>
+      </c>
+      <c r="F66">
+        <v>0.03424143835715491</v>
+      </c>
+      <c r="G66">
+        <v>0.1054328221154098</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.01220706479053988</v>
+        <v>0.05471589235419283</v>
       </c>
       <c r="C67">
-        <v>0.04319496205509197</v>
+        <v>-0.03477454453348891</v>
       </c>
       <c r="D67">
-        <v>0.06858145481446379</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005976484025900152</v>
+      </c>
+      <c r="E67">
+        <v>0.002024777046291764</v>
+      </c>
+      <c r="F67">
+        <v>-0.01948052795256928</v>
+      </c>
+      <c r="G67">
+        <v>0.07750523402181118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1105922719892667</v>
+        <v>0.1552578189163676</v>
       </c>
       <c r="C68">
-        <v>0.2452060300875303</v>
+        <v>0.2701099054837494</v>
       </c>
       <c r="D68">
-        <v>-0.1487740166606986</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.006183693100081536</v>
+      </c>
+      <c r="E68">
+        <v>-0.01498745485600564</v>
+      </c>
+      <c r="F68">
+        <v>-0.03407488637958457</v>
+      </c>
+      <c r="G68">
+        <v>0.02468086600463845</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.007639285087072484</v>
+        <v>0.08274417136312408</v>
       </c>
       <c r="C69">
-        <v>0.03481472561765836</v>
+        <v>-0.07051312283033999</v>
       </c>
       <c r="D69">
-        <v>0.08050106248413845</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008968183385128704</v>
+      </c>
+      <c r="E69">
+        <v>0.02131352201796003</v>
+      </c>
+      <c r="F69">
+        <v>-0.03648154485446058</v>
+      </c>
+      <c r="G69">
+        <v>0.1017073706001625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,122 +2301,203 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.08643682372305336</v>
+        <v>0.1408016370112768</v>
       </c>
       <c r="C71">
-        <v>0.2074886546897406</v>
+        <v>0.2283444786827682</v>
       </c>
       <c r="D71">
-        <v>-0.0948188976149356</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002418162697002828</v>
+      </c>
+      <c r="E71">
+        <v>-0.03737019956725835</v>
+      </c>
+      <c r="F71">
+        <v>-0.02099519882642019</v>
+      </c>
+      <c r="G71">
+        <v>0.06730963831893899</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002560231363651641</v>
+        <v>0.08532558573594146</v>
       </c>
       <c r="C72">
-        <v>0.02202475835989755</v>
+        <v>-0.07101261214311186</v>
       </c>
       <c r="D72">
-        <v>0.1049644996045954</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008630056899608978</v>
+      </c>
+      <c r="E72">
+        <v>0.005886545982651525</v>
+      </c>
+      <c r="F72">
+        <v>0.04188074488313536</v>
+      </c>
+      <c r="G72">
+        <v>0.08970209901979781</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.09304505334270673</v>
+        <v>0.3758076053719179</v>
       </c>
       <c r="C73">
-        <v>0.1628233602653081</v>
+        <v>-0.1189367635394656</v>
       </c>
       <c r="D73">
-        <v>0.2707964058497971</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0203410876855141</v>
+      </c>
+      <c r="E73">
+        <v>-0.07884563130450777</v>
+      </c>
+      <c r="F73">
+        <v>0.5770176053105059</v>
+      </c>
+      <c r="G73">
+        <v>-0.2823132507178754</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.01418501365844439</v>
+        <v>0.1047004864477316</v>
       </c>
       <c r="C74">
-        <v>0.04877628494995352</v>
+        <v>-0.1094806577792593</v>
       </c>
       <c r="D74">
-        <v>0.1784726791300595</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009345942399060758</v>
+      </c>
+      <c r="E74">
+        <v>0.00767145420137562</v>
+      </c>
+      <c r="F74">
+        <v>-0.06859444254009538</v>
+      </c>
+      <c r="G74">
+        <v>0.08676041027348465</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.03779869732024885</v>
+        <v>0.2487480541976073</v>
       </c>
       <c r="C75">
-        <v>0.1244033095244119</v>
+        <v>-0.15279778215848</v>
       </c>
       <c r="D75">
-        <v>0.3083207984066421</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03067299985826251</v>
+      </c>
+      <c r="E75">
+        <v>0.06826468446352701</v>
+      </c>
+      <c r="F75">
+        <v>-0.1703177425661144</v>
+      </c>
+      <c r="G75">
+        <v>-0.006386462979179656</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.01238977440365221</v>
+        <v>0.1187800722273811</v>
       </c>
       <c r="C76">
-        <v>0.06149918079445947</v>
+        <v>-0.1089697821399462</v>
       </c>
       <c r="D76">
-        <v>0.2183270702100159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01837686308229016</v>
+      </c>
+      <c r="E76">
+        <v>0.03133563166380473</v>
+      </c>
+      <c r="F76">
+        <v>-0.1066169331514456</v>
+      </c>
+      <c r="G76">
+        <v>0.06029378407919216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01640838392208844</v>
+        <v>0.06779270636032436</v>
       </c>
       <c r="C77">
-        <v>0.01075633300352287</v>
+        <v>-0.05986050947665395</v>
       </c>
       <c r="D77">
-        <v>0.0692685185692152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01095300343304506</v>
+      </c>
+      <c r="E77">
+        <v>-0.04441128056779477</v>
+      </c>
+      <c r="F77">
+        <v>0.009797029484205291</v>
+      </c>
+      <c r="G77">
+        <v>0.06258064271708037</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004654543385054164</v>
+        <v>0.04141605558761115</v>
       </c>
       <c r="C78">
-        <v>0.0001610413400372295</v>
+        <v>-0.05166025998597649</v>
       </c>
       <c r="D78">
-        <v>0.057681545364433</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0056142093508556</v>
+      </c>
+      <c r="E78">
+        <v>-0.02607067743016447</v>
+      </c>
+      <c r="F78">
+        <v>0.03682245387620094</v>
+      </c>
+      <c r="G78">
+        <v>0.0979963979997146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1797,66 +2508,111 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.02268701781471303</v>
+        <v>0.04346262532396791</v>
       </c>
       <c r="C80">
-        <v>0.02519990609740195</v>
+        <v>-0.05084868197906613</v>
       </c>
       <c r="D80">
-        <v>0.08626329427113803</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01295420006801707</v>
+      </c>
+      <c r="E80">
+        <v>-0.02343464336795912</v>
+      </c>
+      <c r="F80">
+        <v>0.01456915308406078</v>
+      </c>
+      <c r="G80">
+        <v>0.04984897587874654</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.02256636446835011</v>
+        <v>0.1369075046818496</v>
       </c>
       <c r="C81">
-        <v>0.0710662476326316</v>
+        <v>-0.09581541962971434</v>
       </c>
       <c r="D81">
-        <v>0.1785283272508015</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01490675024823945</v>
+      </c>
+      <c r="E81">
+        <v>0.03700230472058338</v>
+      </c>
+      <c r="F81">
+        <v>-0.1273688383309536</v>
+      </c>
+      <c r="G81">
+        <v>0.02498594360649685</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1306549288929395</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07710495552420479</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.008649577585076172</v>
+      </c>
+      <c r="E82">
+        <v>0.097899369936584</v>
+      </c>
+      <c r="F82">
+        <v>-0.04608385842485986</v>
+      </c>
+      <c r="G82">
+        <v>0.07076411234628084</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01023243036957918</v>
+        <v>0.03585006987572149</v>
       </c>
       <c r="C83">
-        <v>0.01478093287109976</v>
+        <v>-0.02994639604985476</v>
       </c>
       <c r="D83">
-        <v>0.03550995899693158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.00606638776337478</v>
+      </c>
+      <c r="E83">
+        <v>-0.03168144611460012</v>
+      </c>
+      <c r="F83">
+        <v>0.03112555727318501</v>
+      </c>
+      <c r="G83">
+        <v>0.0615190539730418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.0349355741344974</v>
+        <v>0.2123937487465219</v>
       </c>
       <c r="C85">
-        <v>0.08063722219968648</v>
+        <v>-0.14661915145425</v>
       </c>
       <c r="D85">
-        <v>0.2701990242715268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01756783892211569</v>
+      </c>
+      <c r="E85">
+        <v>0.1060792969406998</v>
+      </c>
+      <c r="F85">
+        <v>-0.1264678551625004</v>
+      </c>
+      <c r="G85">
+        <v>-0.05992577569554072</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009560549474410238</v>
+        <v>0.01254406105738995</v>
       </c>
       <c r="C86">
-        <v>0.008425753577717396</v>
+        <v>-0.02855933252738973</v>
       </c>
       <c r="D86">
-        <v>0.0593325557350046</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01212687257363788</v>
+      </c>
+      <c r="E86">
+        <v>-0.05386174130613131</v>
+      </c>
+      <c r="F86">
+        <v>0.02499119598722409</v>
+      </c>
+      <c r="G86">
+        <v>0.1903765854917241</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.005279734631545041</v>
+        <v>0.02100565200594658</v>
       </c>
       <c r="C87">
-        <v>-0.01089398667811581</v>
+        <v>-0.02334415032185396</v>
       </c>
       <c r="D87">
-        <v>0.04814978123818942</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01181288193199212</v>
+      </c>
+      <c r="E87">
+        <v>-0.09146622144445185</v>
+      </c>
+      <c r="F87">
+        <v>0.00974454390699003</v>
+      </c>
+      <c r="G87">
+        <v>0.1203310136650539</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03238082116511116</v>
+        <v>0.09371964777220802</v>
       </c>
       <c r="C88">
-        <v>0.01960909630738799</v>
+        <v>-0.06844388093791438</v>
       </c>
       <c r="D88">
-        <v>0.05757271801852519</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02220094788248863</v>
+      </c>
+      <c r="E88">
+        <v>0.003643214631889363</v>
+      </c>
+      <c r="F88">
+        <v>-0.02152911469548498</v>
+      </c>
+      <c r="G88">
+        <v>0.09266084138722278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1610369355352027</v>
+        <v>0.2333148787946175</v>
       </c>
       <c r="C89">
-        <v>0.3796895152708741</v>
+        <v>0.3665376786071305</v>
       </c>
       <c r="D89">
-        <v>-0.1701720839441168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0005228999831423248</v>
+      </c>
+      <c r="E89">
+        <v>0.01199448596677641</v>
+      </c>
+      <c r="F89">
+        <v>-0.02415355291158061</v>
+      </c>
+      <c r="G89">
+        <v>0.06906520603051854</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1279452645181734</v>
+        <v>0.2080240046659968</v>
       </c>
       <c r="C90">
-        <v>0.3084724181166454</v>
+        <v>0.3188151226488785</v>
       </c>
       <c r="D90">
-        <v>-0.1625716657212097</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004188618272894404</v>
+      </c>
+      <c r="E90">
+        <v>0.002033334919910776</v>
+      </c>
+      <c r="F90">
+        <v>-0.0537771956539682</v>
+      </c>
+      <c r="G90">
+        <v>0.04371581927329404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.02948199403247842</v>
+        <v>0.1859159173794144</v>
       </c>
       <c r="C91">
-        <v>0.1035232721737344</v>
+        <v>-0.1401727666662503</v>
       </c>
       <c r="D91">
-        <v>0.2273627008764345</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02203005113219725</v>
+      </c>
+      <c r="E91">
+        <v>0.06600638147162181</v>
+      </c>
+      <c r="F91">
+        <v>-0.1447567856188444</v>
+      </c>
+      <c r="G91">
+        <v>0.0366785747472413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.09455807625468532</v>
+        <v>0.2000197658715678</v>
       </c>
       <c r="C92">
-        <v>0.3088178475778737</v>
+        <v>0.25775014269931</v>
       </c>
       <c r="D92">
-        <v>-0.05915015057599855</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03758712273329825</v>
+      </c>
+      <c r="E92">
+        <v>-0.04461104415833286</v>
+      </c>
+      <c r="F92">
+        <v>-0.06194144034973318</v>
+      </c>
+      <c r="G92">
+        <v>0.1187851447916351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.13109797636887</v>
+        <v>0.2327616085839696</v>
       </c>
       <c r="C93">
-        <v>0.3302870724724076</v>
+        <v>0.3136578606969808</v>
       </c>
       <c r="D93">
-        <v>-0.1258386388869171</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01103902129909597</v>
+      </c>
+      <c r="E93">
+        <v>-0.009300283126527796</v>
+      </c>
+      <c r="F93">
+        <v>-0.04184208102928547</v>
+      </c>
+      <c r="G93">
+        <v>0.05932854287749269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.06958169569935606</v>
+        <v>0.3178527209300687</v>
       </c>
       <c r="C94">
-        <v>0.1488484575163095</v>
+        <v>-0.178419564414627</v>
       </c>
       <c r="D94">
-        <v>0.2853282130471177</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01713923684656063</v>
+      </c>
+      <c r="E94">
+        <v>0.2075784304622491</v>
+      </c>
+      <c r="F94">
+        <v>-0.4742521009779734</v>
+      </c>
+      <c r="G94">
+        <v>-0.4391630868091233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002111260530022962</v>
+        <v>0.1014212566833953</v>
       </c>
       <c r="C95">
-        <v>0.01820349059770068</v>
+        <v>-0.08956646030030403</v>
       </c>
       <c r="D95">
-        <v>0.1305809647330898</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01139802458139584</v>
+      </c>
+      <c r="E95">
+        <v>-0.07457308137817668</v>
+      </c>
+      <c r="F95">
+        <v>0.1979581022737219</v>
+      </c>
+      <c r="G95">
+        <v>-0.05401058556803407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.04467897655495617</v>
+        <v>0.1973464683959761</v>
       </c>
       <c r="C98">
-        <v>0.1412414696107574</v>
+        <v>-0.04610941663305097</v>
       </c>
       <c r="D98">
-        <v>0.158657461239186</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01353681945841821</v>
+      </c>
+      <c r="E98">
+        <v>-0.07325044375429475</v>
+      </c>
+      <c r="F98">
+        <v>0.238853673634779</v>
+      </c>
+      <c r="G98">
+        <v>-0.004532283474433705</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01087621387582396</v>
+        <v>0.009153514686490775</v>
       </c>
       <c r="C101">
-        <v>0.01053024848044038</v>
+        <v>-0.02245441720162027</v>
       </c>
       <c r="D101">
-        <v>0.01787612676184708</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.00883196531944244</v>
+      </c>
+      <c r="E101">
+        <v>-0.003495153072269028</v>
+      </c>
+      <c r="F101">
+        <v>-0.01808125246502354</v>
+      </c>
+      <c r="G101">
+        <v>0.09448201905992508</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0253860393161112</v>
+        <v>0.1161554594705834</v>
       </c>
       <c r="C102">
-        <v>0.04121147262603136</v>
+        <v>-0.08369121877801758</v>
       </c>
       <c r="D102">
-        <v>0.1320934572904394</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0008612961770903077</v>
+      </c>
+      <c r="E102">
+        <v>0.03614597174723655</v>
+      </c>
+      <c r="F102">
+        <v>-0.04082819200548765</v>
+      </c>
+      <c r="G102">
+        <v>0.01960565912159538</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9198239894926721</v>
+        <v>0.02079820438505879</v>
       </c>
       <c r="C104">
-        <v>-0.3673960115108905</v>
+        <v>0.02927787861506276</v>
       </c>
       <c r="D104">
-        <v>-0.03795130406229805</v>
+        <v>0.9878940009528375</v>
+      </c>
+      <c r="E104">
+        <v>0.04888048375766978</v>
+      </c>
+      <c r="F104">
+        <v>-0.03279663358344232</v>
+      </c>
+      <c r="G104">
+        <v>-0.03593167951659759</v>
       </c>
     </row>
   </sheetData>
